--- a/biology/Botanique/Verveine/Verveine.xlsx
+++ b/biology/Botanique/Verveine/Verveine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les verveines sont des plantes de la famille des Verbenaceae. Ce sont des plantes aromatiques ou ornementales.
 Les différentes espèces sont classées au moins dans trois genres différents.
@@ -514,16 +526,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Verbena
-Verbena est le genre de Verbena officinalis, la verveine officinale, espèce peut-être la plus connue en Europe. Elle est cosmopolite. Dans l'Antiquité, on lui attribuait des vertus miraculeuses. Appelée « herbe à Vénus », cette plante avait pour vertu d'attirer l'amour.
+          <t>Verbena</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Verbena est le genre de Verbena officinalis, la verveine officinale, espèce peut-être la plus connue en Europe. Elle est cosmopolite. Dans l'Antiquité, on lui attribuait des vertus miraculeuses. Appelée « herbe à Vénus », cette plante avait pour vertu d'attirer l'amour.
 Le genre contient une centaine d'autres espèces.
-Verveine vient du latin uerbenæ, « rameaux de laurier, d'olivier, de myrte »[1].
-Aloysia
-Aloysia est un genre contenant plusieurs espèces, dont les plus connues sont sans doute :
-Aloysia citrodora, la verveine odorante ou verveine citronnelle.
-Aloysia polystachya, la verveine menthe ou verveine réglisse.
-Glandularia
-Glandularia est un genre contenant plusieurs espèces. Parmi elles, on retrouve Glandularia peruviana, l'une des verveines dites du Pérou.</t>
+Verveine vient du latin uerbenæ, « rameaux de laurier, d'olivier, de myrte ».</t>
         </is>
       </c>
     </row>
@@ -548,10 +559,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Genres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Aloysia</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Aloysia est un genre contenant plusieurs espèces, dont les plus connues sont sans doute :
+Aloysia citrodora, la verveine odorante ou verveine citronnelle.
+Aloysia polystachya, la verveine menthe ou verveine réglisse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Verveine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Verveine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Genres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Glandularia</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Glandularia est un genre contenant plusieurs espèces. Parmi elles, on retrouve Glandularia peruviana, l'une des verveines dites du Pérou.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Verveine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Verveine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Des verveines sont utilisées en cosmétique. 
 D'autres sont consommées en infusions digestives - sous forme de tisane, parfois additionnées de menthe. Toutefois, toutes les plantes nommées « verveines » ne sont pas comestibles et toutes n'ont pas les mêmes vertus.
@@ -560,31 +647,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Verveine</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Verveine</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Dans les œuvres de fiction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Leconte de Lisle, dans son poème Néère (Poèmes antiques : Études latines), cite explicitement la verveine comme plante dédiée à l'amour : « Pour apaiser les Dieux […] Et sur l'autel […] Posez l'encens et les verveines. » Ce poème a été mis en musique par Reynaldo Hahn.
 Dans la série télévisée Vampire Diaries, cette plante a des pouvoirs surnaturels et a pour vertu d'affaiblir considérablement les vampires et de leur nuire. Elle peut aussi empêcher l'hypnose. En occurrence elle y est appelée Veine de Vénus.
@@ -592,31 +681,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Verveine</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Verveine</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Calendrier républicain / révolutionnaire français</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 27e jour du mois de prairial y est officiellement dénommé « jour de la verveine », généralement chaque 15 juin du calendrier grégorien.
 </t>
